--- a/РАСЧЁТ ПРОГИБА ПО СП.xlsx
+++ b/РАСЧЁТ ПРОГИБА ПО СП.xlsx
@@ -99,55 +99,55 @@
     <t>Ветровой район:</t>
   </si>
   <si>
+    <t>II(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наветренная сторона </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Высота здания h (м):</t>
+  </si>
+  <si>
+    <t>Ветр рег.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Ширина здания d (м):</t>
+  </si>
+  <si>
+    <t>Длина здания</t>
+  </si>
+  <si>
+    <t>Момент инерции</t>
+  </si>
+  <si>
+    <t>Ia(1a)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Фактическая высота установки окна (м):</t>
+  </si>
+  <si>
+    <t>Расстояние от края наветренной стены до окна</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
     <t>I(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Наветренная сторона </t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Высота здания h (м):</t>
-  </si>
-  <si>
-    <t>Ветр рег.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Ширина здания d (м):</t>
-  </si>
-  <si>
-    <t>Длина здания</t>
-  </si>
-  <si>
-    <t>Момент инерции</t>
-  </si>
-  <si>
-    <t>Ia(1a)</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Фактическая высота установки окна (м):</t>
-  </si>
-  <si>
-    <t>Расстояние от края наветренной стены до окна</t>
-  </si>
-  <si>
-    <t>Площадь</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t xml:space="preserve">Тип местности </t>
-  </si>
-  <si>
-    <t>II(2)</t>
   </si>
   <si>
     <t>E</t>
@@ -2226,6 +2226,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
       <sz val="9"/>
       <color theme="1"/>
@@ -2234,18 +2249,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <i/>
+      <vertAlign val="subscript"/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="ItalicT"/>
+      <name val="Artifakt Element"/>
       <charset val="204"/>
     </font>
     <font>
@@ -2256,22 +2264,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
+      <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <vertAlign val="subscript"/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Artifakt Element"/>
+      <name val="ItalicT"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2406,19 +2406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,12 +2419,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,12 +2466,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2521,12 +2497,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2939,34 +2909,46 @@
     <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2987,22 +2969,10 @@
     <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3811,7 +3781,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16425545"/>
-          <a:ext cx="1287145" cy="1247775"/>
+          <a:ext cx="1287145" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4146,8 +4116,8 @@
   <sheetPr/>
   <dimension ref="A1:CJ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4749,7 +4719,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="39">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>25</v>
@@ -4787,7 +4757,7 @@
       </c>
       <c r="W10" s="135">
         <f>IF(B8=V10,170,IF(B8=V11,230,IF(B8=V12,300,IF(B8=V13,380,IF(B8=V14,480,IF(B8=V15,600,IF(B8=V16,730,IF(B8=V17,850))))))))</f>
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="143"/>
@@ -4849,13 +4819,13 @@
         <v>29</v>
       </c>
       <c r="B11" s="39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="115" t="s">
         <v>31</v>
@@ -4883,14 +4853,14 @@
       </c>
       <c r="U11" s="134"/>
       <c r="V11" s="17" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="143"/>
       <c r="Z11"/>
       <c r="AG11" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH11" s="32">
         <v>-2.4</v>
@@ -4943,14 +4913,14 @@
     </row>
     <row r="12" s="32" customFormat="1" ht="12" customHeight="1" spans="1:88">
       <c r="A12" s="38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U12" s="134"/>
       <c r="V12" s="17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
@@ -5013,7 +4983,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="44">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="U13" s="134"/>
       <c r="V13" s="17" t="s">
@@ -5073,7 +5043,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="44">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="U14" s="111"/>
       <c r="V14" s="17" t="s">
@@ -5133,7 +5103,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="44">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>41</v>
@@ -5143,7 +5113,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="45">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="46">
         <f>K10/1000000000000</f>
@@ -5198,7 +5168,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>45</v>
@@ -5208,7 +5178,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="45">
-        <v>15</v>
+        <v>-20</v>
       </c>
       <c r="U16" s="111"/>
       <c r="V16" s="17" t="s">
@@ -5262,7 +5232,7 @@
       </c>
       <c r="B17" s="49">
         <f>B13-B16</f>
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>49</v>
@@ -5272,7 +5242,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U17" s="111"/>
       <c r="V17" s="17" t="s">
@@ -5373,7 +5343,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="32" t="s">
@@ -5381,7 +5351,7 @@
       </c>
       <c r="F19" s="53">
         <f>K27*1000</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="U19" s="112"/>
       <c r="V19" s="113"/>
@@ -5436,7 +5406,7 @@
       </c>
       <c r="F20" s="56">
         <f>K28*1000</f>
-        <v>2.59344870381363</v>
+        <v>12.6722503851907</v>
       </c>
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
@@ -5720,7 +5690,7 @@
       </c>
       <c r="D25" s="65">
         <f>F30+F48</f>
-        <v>343.63472</v>
+        <v>401.424</v>
       </c>
       <c r="E25" s="66"/>
       <c r="G25" s="55"/>
@@ -5865,7 +5835,7 @@
       <c r="H27" s="55"/>
       <c r="K27" s="119">
         <f>BU48</f>
-        <v>0.0075</v>
+        <v>0.009</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
@@ -5889,7 +5859,7 @@
       </c>
       <c r="W27" s="140">
         <f>IF(B12="A",1,IF(B12="B",2,IF(B12="C",3)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X27" s="139"/>
       <c r="Y27" s="17"/>
@@ -5937,14 +5907,14 @@
       </c>
       <c r="F28" s="67" t="str">
         <f>B8</f>
-        <v>I(1)</v>
+        <v>II(2)</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>76</v>
       </c>
       <c r="K28" s="120">
         <f>C53+C75</f>
-        <v>0.00259344870381363</v>
+        <v>0.0126722503851907</v>
       </c>
       <c r="L28" t="s">
         <v>10</v>
@@ -6033,7 +6003,7 @@
       </c>
       <c r="F29" s="67">
         <f>W10</f>
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="G29" s="70" t="s">
         <v>80</v>
@@ -6123,7 +6093,7 @@
       </c>
       <c r="F30" s="72">
         <f>F29*F35*F36</f>
-        <v>239.2</v>
+        <v>240</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>83</v>
@@ -6352,11 +6322,11 @@
     </row>
     <row r="33" s="32" customFormat="1" spans="3:88">
       <c r="C33" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F33" s="67" t="str">
         <f>B12</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>91</v>
@@ -6521,7 +6491,7 @@
       </c>
       <c r="F35" s="74">
         <f>IFERROR(INDEX(Q25:S35,W32,W27),"-")</f>
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>91</v>
@@ -6758,7 +6728,7 @@
       <c r="H40" s="70"/>
       <c r="Q40" s="111"/>
       <c r="R40" s="144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S40" s="137">
         <v>0.8</v>
@@ -6910,7 +6880,7 @@
       </c>
       <c r="CA44" s="168">
         <f>IFERROR(W10*F35*0.8*(1+F46),"-")</f>
-        <v>416.208</v>
+        <v>513.6</v>
       </c>
       <c r="CB44" s="129"/>
       <c r="CC44" s="129"/>
@@ -6957,7 +6927,7 @@
       </c>
       <c r="F46" s="74">
         <f>IFERROR(INDEX(V45:X55,W32,W27),"-")</f>
-        <v>0.74</v>
+        <v>1.14</v>
       </c>
       <c r="Q46" s="134" t="s">
         <v>123</v>
@@ -7041,7 +7011,7 @@
       </c>
       <c r="F48" s="82">
         <f>F30*F46*F47</f>
-        <v>104.43472</v>
+        <v>161.424</v>
       </c>
       <c r="K48" t="s">
         <v>128</v>
@@ -7076,7 +7046,7 @@
       <c r="AP48" s="11"/>
       <c r="BO48" s="100">
         <f>K28*1000</f>
-        <v>2.59344870381363</v>
+        <v>12.6722503851907</v>
       </c>
       <c r="BP48" s="100"/>
       <c r="BQ48" s="100"/>
@@ -7085,7 +7055,7 @@
       </c>
       <c r="BU48" s="169">
         <f>F64/200</f>
-        <v>0.0075</v>
+        <v>0.009</v>
       </c>
       <c r="BX48" s="129"/>
       <c r="BY48" s="129"/>
@@ -7234,7 +7204,7 @@
       <c r="AP51" s="11"/>
       <c r="BO51" s="100">
         <f>C53</f>
-        <v>0.00203959373221586</v>
+        <v>0.00644108039627903</v>
       </c>
       <c r="BP51" s="100"/>
       <c r="BQ51" t="s">
@@ -7285,7 +7255,7 @@
       </c>
       <c r="C53" s="90">
         <f>(F54/(F62*F58+F61*F57))*(F67*(F67^2-5*F64^2)^2+F68*(F68^2-5*F64^2)^2)/3840</f>
-        <v>0.00203959373221586</v>
+        <v>0.00644108039627903</v>
       </c>
       <c r="L53" t="s">
         <v>151</v>
@@ -7322,7 +7292,7 @@
       </c>
       <c r="F54" s="95">
         <f>D25</f>
-        <v>343.63472</v>
+        <v>401.424</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
@@ -7352,11 +7322,11 @@
       <c r="F55" s="32"/>
       <c r="M55" s="124">
         <f>IF(OR(B19=K3,B19=L3,B19=O3),M50,IF(B19=P3,M51,IF(OR(B19=M3,B19=N3),M52,IF(B19=Q3,M53))))</f>
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N55">
         <f>IF(OR(B19=K3,B19=O3,B19=L3),N50,IF(B19=P3,N51,IF(OR(B19=M3,B19=N3),N52,IF(B19=Q3,N53))))</f>
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="U55" s="123" t="s">
         <v>102</v>
@@ -7397,11 +7367,11 @@
       </c>
       <c r="F57" s="99">
         <f>G57</f>
-        <v>3.49918e-7</v>
+        <v>5.33651e-7</v>
       </c>
       <c r="G57" s="100">
         <f>IF(B19=K3,K10,IF(B19=L3,L10,IF(B19=M3,M10,IF(B19=N3,N10,IF(B19=O3,O10,IF(B19=P3,P10,IF(B19=Q3,Q10)))))))/1000000000000</f>
-        <v>3.49918e-7</v>
+        <v>5.33651e-7</v>
       </c>
       <c r="K57">
         <v>3.49918e-7</v>
@@ -7531,7 +7501,7 @@
       </c>
       <c r="BO60" s="164">
         <f>CA44</f>
-        <v>416.208</v>
+        <v>513.6</v>
       </c>
       <c r="BP60" s="165"/>
       <c r="BQ60" t="s">
@@ -7675,7 +7645,7 @@
       </c>
       <c r="F64" s="95">
         <f>B13/100</f>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M64" s="126" t="s">
         <v>161</v>
@@ -7795,7 +7765,7 @@
       </c>
       <c r="F67" s="95">
         <f>B14/100</f>
-        <v>0.7</v>
+        <v>1.09</v>
       </c>
       <c r="M67" s="111"/>
       <c r="N67" s="11">
@@ -7837,7 +7807,7 @@
       </c>
       <c r="F68" s="95">
         <f>B15/100</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M68" s="111"/>
       <c r="N68" s="11"/>
@@ -7910,7 +7880,7 @@
       <c r="F71" s="32"/>
       <c r="G71" s="172">
         <f>(F120*F64^2*F61*F57-G77*(F80*F64^2+F79*(F64^2-4*F76^2)))/(8*(F62*F58+F61*F57))</f>
-        <v>0.000553854971597769</v>
+        <v>0.0062311699889117</v>
       </c>
       <c r="AB71" s="110"/>
       <c r="AC71" s="110"/>
@@ -8012,7 +7982,7 @@
       </c>
       <c r="BT73" s="203">
         <f>C75</f>
-        <v>0.000553854971597769</v>
+        <v>0.0062311699889117</v>
       </c>
     </row>
     <row r="74" spans="1:57">
@@ -8051,13 +8021,13 @@
       </c>
       <c r="C75" s="174">
         <f>(F120*F64^2*F61*F57-F77*(F80*F64^2+F79*(F64^2-4*F76^2)))/(8*(F62*F58+F61*F57))</f>
-        <v>0.000553854971597769</v>
+        <v>0.0062311699889117</v>
       </c>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="G75" s="175">
         <f>(F120*F64^2*F61*F57-F77*(BO86*F64^2+BO87*(F64^2-4*F76^2)))/(8*(F62*F58+F61*F57))</f>
-        <v>0.000553854971597769</v>
+        <v>0.0062311699889117</v>
       </c>
       <c r="AB75" s="11"/>
       <c r="AC75" s="11"/>
@@ -8086,7 +8056,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:69">
+    <row r="76" ht="15.75" spans="1:69">
       <c r="A76" s="96"/>
       <c r="C76" s="32" t="s">
         <v>195</v>
@@ -8146,11 +8116,11 @@
       </c>
       <c r="F77" s="176">
         <f>G77</f>
-        <v>0.0066</v>
+        <v>0.01127</v>
       </c>
       <c r="G77" s="177">
         <f>IF(AND(B19=M77,B21=M78),N78,IF(AND(B19=M77,B21=M79),N79,IF(AND(B19=M77,B21=M80),N80,IF(AND(B19=M77,B21=M81),N81,IF(AND(B19=M82,B21=M83),N83,IF(AND(B19=M82,B21=M84),N84,IF(AND(B19=M82,B21=M85),N85,IF(AND(B19=M82,B21=M86),N86,IF(AND(B19=M87,B21=M88),N88,IF(AND(B19=M87,B21=M89),N89,IF(AND(B19=M87,B21=M90),N90,IF(AND(B19=M87,B21=M91),N91,IF(AND(B19=M92,B21=M93),N93,IF(AND(B19=M92,B21=M94),N94,IF(AND(B19=M92,B21=M95),N95,IF(AND(B19=M92,B21=M96),N96,IF(AND(B19=M97,B21=M98),N98,IF(AND(B19=M97,B21=M99),N99,IF(AND(B19=M97,B21=M100),N100,IF(AND(B19=M97,B21=M101),N101,IF(AND(B19=M102,B21=M103),N103,IF(AND(B19=M102,B21=M104),N104,IF(AND(B19=M105,B21=M106),N106,IF(AND(B19=M105,B21=M108),N108))))))))))))))))))))))))/1000</f>
-        <v>0.0066</v>
+        <v>0.01127</v>
       </c>
       <c r="M77" s="109" t="s">
         <v>2</v>
@@ -8237,7 +8207,7 @@
       </c>
       <c r="F79" s="95">
         <f>((F98-F17)*(F96*F115-F95))/(F82*F76*F91*(F82+(2/(F91*(F64-2*F76)))+2*F82+(2/(F91*(F64-2*F76)))))</f>
-        <v>-460.072875050714</v>
+        <v>-2027.05063763859</v>
       </c>
       <c r="M79" s="111" t="s">
         <v>12</v>
@@ -8272,7 +8242,7 @@
       </c>
       <c r="F80" s="95">
         <f>F79*(F76*F91*(F82+(2/(F91*(F64-2*F76))))+1)</f>
-        <v>-968.217824195333</v>
+        <v>-3819.87148032132</v>
       </c>
       <c r="M80" s="111" t="s">
         <v>14</v>
@@ -8329,7 +8299,7 @@
       </c>
       <c r="F82" s="181">
         <f>(1/(F89*F61))+(1/(F90*F62))</f>
-        <v>4.29236557677286e-7</v>
+        <v>3.7690978473236e-7</v>
       </c>
       <c r="M82" s="110" t="s">
         <v>3</v>
@@ -8393,7 +8363,7 @@
       <c r="AD85" s="11"/>
       <c r="AH85" s="100">
         <f>F98</f>
-        <v>8.15851088738001</v>
+        <v>-10.8780145165067</v>
       </c>
       <c r="AJ85" t="s">
         <v>218</v>
@@ -8418,7 +8388,7 @@
       <c r="AQ86" s="128"/>
       <c r="BO86" s="100">
         <f>F80</f>
-        <v>-968.217824195333</v>
+        <v>-3819.87148032132</v>
       </c>
       <c r="BP86" s="100"/>
       <c r="BQ86" t="s">
@@ -8431,7 +8401,7 @@
       </c>
       <c r="G87" s="100">
         <f>IF(B19=K3,K11,IF(B19=L3,L11,IF(B19=M3,M11,IF(B19=N3,N11,IF(B19=O3,O11,IF(B19=P3,P11,IF(B19=Q3,Q11)))))))/1000000</f>
-        <v>0.000727</v>
+        <v>0.000835</v>
       </c>
       <c r="K87">
         <v>0.000727</v>
@@ -8446,7 +8416,7 @@
       <c r="AQ87" s="128"/>
       <c r="BO87" s="100">
         <f>F79</f>
-        <v>-460.072875050714</v>
+        <v>-2027.05063763859</v>
       </c>
       <c r="BP87" s="100"/>
       <c r="BQ87" t="s">
@@ -8483,7 +8453,7 @@
       </c>
       <c r="F89" s="184">
         <f>G87</f>
-        <v>0.000727</v>
+        <v>0.000835</v>
       </c>
       <c r="M89" s="11" t="s">
         <v>12</v>
@@ -8692,11 +8662,11 @@
       <c r="D98" s="5"/>
       <c r="F98" s="184">
         <f>K98</f>
-        <v>8.15851088738001</v>
+        <v>-10.8780145165067</v>
       </c>
       <c r="K98" s="192">
         <f>(F15-(F15-F16))*((1/F106+F101/(F110+1))/(1/F106+F101+1/F105))</f>
-        <v>8.15851088738001</v>
+        <v>-10.8780145165067</v>
       </c>
       <c r="M98" s="11" t="s">
         <v>9</v>
@@ -8728,13 +8698,13 @@
       <c r="AD99" s="11"/>
       <c r="AH99" s="100">
         <f>F120</f>
-        <v>0.00425642706626083</v>
+        <v>0.030683694016122</v>
       </c>
       <c r="AP99" s="11"/>
       <c r="AQ99" s="128"/>
       <c r="BO99" s="204">
         <f>F82</f>
-        <v>4.29236557677286e-7</v>
+        <v>3.7690978473236e-7</v>
       </c>
       <c r="BP99" s="100"/>
       <c r="BQ99" t="s">
@@ -9021,11 +8991,11 @@
       </c>
       <c r="F115" s="184">
         <f>G115</f>
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="G115" s="100">
         <f>M55</f>
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="L115" s="109" t="s">
         <v>2</v>
@@ -9046,11 +9016,11 @@
       </c>
       <c r="F116" s="184">
         <f>G116</f>
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="G116" s="100">
         <f>N55</f>
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="L116" s="125" t="s">
         <v>3</v>
@@ -9092,11 +9062,11 @@
       </c>
       <c r="F118" s="184">
         <f>G118</f>
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G118" s="189">
         <f>IF(OR(B19=K3,B19=O3,B19=P3,B19=L3),0.06,IF(OR(B19=M3,B19=Q3,B19=N3),0.07))</f>
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="L118" s="125" t="s">
         <v>5</v>
@@ -9139,7 +9109,7 @@
       </c>
       <c r="F120" s="188">
         <f>F96*((F15-F16)/F118)*(F101/((1/F106)+F101+(1/F105)))*F116</f>
-        <v>0.00425642706626083</v>
+        <v>0.030683694016122</v>
       </c>
       <c r="L120" s="125" t="s">
         <v>7</v>
@@ -10288,7 +10258,7 @@
         <v>258</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="4:5">
